--- a/data/leave_requests.xlsx
+++ b/data/leave_requests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavierorcutt/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavierorcutt/Dropbox/chinle-primarycare-scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82DBA6B1-4CFF-B049-9CCB-A5CAF736B012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AF7C01-D468-B748-A788-5BC950F578AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{F627A864-BB59-1547-8727-0110AD9230D7}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{D257A29E-16DB-D447-BB09-48D02F643850}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t>provider</t>
   </si>
@@ -44,44 +44,110 @@
     <t>date</t>
   </si>
   <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>2025-06-03</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>2025-06-06</t>
+    <t>Orcutt</t>
+  </si>
+  <si>
+    <t>Wadlin</t>
   </si>
   <si>
     <t>Tanay</t>
   </si>
   <si>
+    <t>Mccrae</t>
+  </si>
+  <si>
     <t>Miles</t>
   </si>
   <si>
-    <t>rank</t>
+    <t>Bornstein</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-08-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,10 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,145 +488,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E887F21-3B90-B949-ADE2-BFE10843420B}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899C2AC7-64D1-1C46-804C-1A307A60394A}">
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
+      <c r="B38" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/leave_requests.xlsx
+++ b/data/leave_requests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavierorcutt/Dropbox/chinle-primarycare-scheduler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavierorcutt/Dropbox/chinle-primarycare-scheduler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AF7C01-D468-B748-A788-5BC950F578AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348CDA32-9375-FF44-B399-B3BB471BC6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{D257A29E-16DB-D447-BB09-48D02F643850}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{D257A29E-16DB-D447-BB09-48D02F643850}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Tanay</t>
   </si>
   <si>
-    <t>Mccrae</t>
-  </si>
-  <si>
     <t>Miles</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>2025-08-09</t>
+  </si>
+  <si>
+    <t>Mcrae</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -702,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -718,87 +718,87 @@
         <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
